--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/MONTANA_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/MONTANA_2014.xlsx
@@ -434,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -483,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -496,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -509,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -571,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -620,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -633,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -682,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -695,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -708,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -721,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -734,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -783,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -796,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -809,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -822,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -835,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -848,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -861,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -874,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -923,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -936,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -985,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1034,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1047,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -1096,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -1145,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -1158,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -1171,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlaquilpa</t>
